--- a/biology/Médecine/François-Amilcar_Aran/François-Amilcar_Aran.xlsx
+++ b/biology/Médecine/François-Amilcar_Aran/François-Amilcar_Aran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Amilcar_Aran</t>
+          <t>François-Amilcar_Aran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Amilcar Aran, né le 12 juillet 1817 et mort le 22 février 1861, est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Amilcar_Aran</t>
+          <t>François-Amilcar_Aran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Bordeaux, il commence ses études médicales dans cette ville et les termine à Paris avec une  thèse consacrée aux palpitations cardiaques.
 Il suit ensuite la filière classique d'une carrière hospitalo-universitaire : il est médecin des hôpitaux à l'Hôpital Saint-Antoine et professeur agrégé avec un travail d'agrégation consacré à la mort subite. Il participe activement à la rédaction de plusieurs journaux parmi lesquels les Archives générales de médecine et l'Union médicale dont il sera le principal contributeur. Il rédigea aussi nombre d'articles didactiques ou originaux pour le Bulletin de thérapeutique. Il fut enfin le traducteur en français d'un important traité de James Henry Bennett consacré aux maladies inflammatoires de l’utérus et de celui de Joseph Škoda (1805-1881) sur la percussion et l’auscultation.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Amilcar_Aran</t>
+          <t>François-Amilcar_Aran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nom d'Aran est resté attaché en médecine à la désignation de 3 entités cliniques :
 Lois d'Aran : elles  décrivent les mécanismes auxquels obéissent les traits de fractures du crâne.
